--- a/q1q3_handled.xlsx
+++ b/q1q3_handled.xlsx
@@ -339,7 +339,7 @@
     <t>v23</t>
   </si>
   <si>
-    <t>NA</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
